--- a/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
@@ -360,77 +360,102 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>COMPLETENESSMANDATORY</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSMANDATORY SCORE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>COMPLETENESSOPTIONAL SCORE</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>PRECISION</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>PRECISION SCORE</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BUSINESSRULECOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>METADATACOMPLIANCE SCORE</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>UNIQUENESS</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>UNIQUENESSCOMPOSITE</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>UNIQUENESS SCORE</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>NONREDUNDANCY SCORE</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>SEMANTICCONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>VALUECONSISTENCY SCORE</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
         <is>
           <t>FORMATCONSISTENCY</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>FORMATCONSISTENCYPREFIX</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>VALUECONSISTENCY</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCESIZE</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCETYPE</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMIN</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCERANGEMAX</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>METACOMPLIANCEENUM</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>RULECOMPLIANCE</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>MANDATORYCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>OPTIONALCOMPLETENESS</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>AVAILABILITY</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>CONFORMANCE</t>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>FORMATCONSISTENCY SCORE</t>
         </is>
       </c>
     </row>
@@ -441,40 +466,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -483,6 +508,21 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -493,10 +533,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -526,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -535,6 +575,21 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -545,10 +600,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -578,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -587,6 +642,21 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -597,10 +667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -630,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -639,6 +709,21 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -649,49 +734,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
+      <c r="U6" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="7">
@@ -701,49 +801,64 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="U7" t="n">
+        <v>0.002</v>
       </c>
     </row>
     <row r="8">
@@ -797,6 +912,21 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -805,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -823,22 +953,22 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -847,6 +977,21 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -857,10 +1002,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -890,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -899,6 +1044,21 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -953,6 +1113,21 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -985,10 +1160,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1003,6 +1178,21 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1037,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1055,6 +1245,21 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1107,6 +1312,21 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1141,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1159,6 +1379,21 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1193,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1211,6 +1446,21 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1245,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0.001</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1263,6 +1513,21 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1317,6 +1582,21 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1369,6 +1649,21 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1421,6 +1716,21 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1471,6 +1781,21 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,13 +493,13 @@
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
     </row>
     <row r="7">
@@ -804,7 +804,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
     </row>
     <row r="8">
@@ -938,7 +938,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1005,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002</v>
+        <v>0.003367</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001</v>
+        <v>0.001122</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>

--- a/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
+++ b/examples/Australia OGD/go_card_retailers/counters_summary.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -490,16 +490,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -600,10 +600,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1002,10 +1002,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003367</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001122</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
